--- a/outputs/model_eval_summary.xlsx
+++ b/outputs/model_eval_summary.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acarr\Documents\GitHub\predictive-modeling\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334033F7-F487-478F-96B3-16E563D9960F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8419A28-272D-4F9B-B490-ED2D2BB46505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="2460" windowWidth="21600" windowHeight="11310" xr2:uid="{2595A067-8260-4B6B-ACD9-84FDF93B9293}"/>
+    <workbookView xWindow="32385" yWindow="1230" windowWidth="14985" windowHeight="15030" activeTab="1" xr2:uid="{2595A067-8260-4B6B-ACD9-84FDF93B9293}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="59">
   <si>
     <t>Model</t>
   </si>
@@ -122,13 +123,310 @@
   </si>
   <si>
     <t>VALIDATION MODELS</t>
+  </si>
+  <si>
+    <t>10-fold Cross-validation</t>
+  </si>
+  <si>
+    <t>Test Set</t>
+  </si>
+  <si>
+    <t>Algo.</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>Sen</t>
+  </si>
+  <si>
+    <t>Spe</t>
+  </si>
+  <si>
+    <t>ROC</t>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="6.6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="6.6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1.2</t>
+    </r>
+  </si>
+  <si>
+    <t>5-fold Cross-validation</t>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="6.6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="6.6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2.2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NN w/ Univariate Pred.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="6.6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="6.6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="6.6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5.1</t>
+    </r>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="6.6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5.2</t>
+    </r>
+  </si>
+  <si>
+    <t>w/ PCA</t>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="6.6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5.3</t>
+    </r>
+  </si>
+  <si>
+    <t>LR w/</t>
+  </si>
+  <si>
+    <t>Univ.</t>
+  </si>
+  <si>
+    <t>Preds.</t>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="6.6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>6.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="6.6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>6.2</t>
+    </r>
+  </si>
+  <si>
+    <t>PLR w/ Univ. Preds.</t>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="6.6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>7.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="6.6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>8.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="6.6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>9.1</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,8 +456,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="6.6"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,8 +491,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -192,16 +529,155 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,7 +995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B39DCB-A5C0-4B6C-9523-DB6DFE179A25}">
   <dimension ref="B2:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -705,4 +1181,655 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13587E40-639D-4CC8-A7FD-AD10C65C4311}">
+  <dimension ref="C2:S27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="3:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+    </row>
+    <row r="4" spans="3:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="21">
+        <f>ROUND(1-((F5+G5)/2),3)</f>
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="F5" s="22">
+        <v>0.85866880000000001</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0.66366999999999998</v>
+      </c>
+      <c r="H5" s="22">
+        <v>0.83262329999999996</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="21">
+        <f t="shared" ref="J5:J6" si="0">ROUND(1-((K5+L5)/2),3)</f>
+        <v>0.16</v>
+      </c>
+      <c r="K5" s="22">
+        <v>0.78869999999999996</v>
+      </c>
+      <c r="L5" s="22">
+        <v>0.8921</v>
+      </c>
+      <c r="M5" s="22"/>
+    </row>
+    <row r="6" spans="3:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="21">
+        <f>ROUND(1-((F6+G6)/2),3)</f>
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0.87477269999999996</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0.72709360000000001</v>
+      </c>
+      <c r="H6" s="22">
+        <v>0.85067329999999997</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="21">
+        <f t="shared" si="0"/>
+        <v>0.152</v>
+      </c>
+      <c r="K6" s="22">
+        <v>0.77459999999999996</v>
+      </c>
+      <c r="L6" s="22">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="M6" s="22"/>
+    </row>
+    <row r="7" spans="3:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="3:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" spans="3:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="3:19" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="Q11">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="Q12">
+        <v>15</v>
+      </c>
+      <c r="R12">
+        <f>SUM(Q11:Q12)</f>
+        <v>139</v>
+      </c>
+      <c r="S12">
+        <f>R12/Q15</f>
+        <v>0.66190476190476188</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="15">
+        <v>91.3</v>
+      </c>
+      <c r="G13" s="15">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="H13" s="15">
+        <v>91.9</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="Q13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="Q14">
+        <v>56</v>
+      </c>
+      <c r="R14">
+        <f>SUM(Q13:Q14)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="Q15">
+        <f>SUM(Q11:Q14)</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="3:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="21">
+        <f t="shared" ref="E17:E18" si="1">ROUND(1-((F17+G17)/2),3)</f>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F17" s="22">
+        <v>0.88376619999999995</v>
+      </c>
+      <c r="G17" s="22">
+        <v>0.75738919999999998</v>
+      </c>
+      <c r="H17" s="22">
+        <v>0.90474239999999995</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="21">
+        <f t="shared" ref="J17:J18" si="2">ROUND(1-((K17+L17)/2),3)</f>
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="K17" s="22">
+        <v>0.87319999999999998</v>
+      </c>
+      <c r="L17" s="22">
+        <v>0.93530000000000002</v>
+      </c>
+      <c r="M17" s="22"/>
+    </row>
+    <row r="18" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="21">
+        <f t="shared" si="1"/>
+        <v>0.191</v>
+      </c>
+      <c r="F18" s="22">
+        <v>0.87120129999999996</v>
+      </c>
+      <c r="G18" s="22">
+        <v>0.74704429999999999</v>
+      </c>
+      <c r="H18" s="22">
+        <v>0.89574969999999998</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="21">
+        <f t="shared" si="2"/>
+        <v>0.114</v>
+      </c>
+      <c r="K18" s="22">
+        <v>0.85919999999999996</v>
+      </c>
+      <c r="L18" s="22">
+        <v>0.91369999999999996</v>
+      </c>
+      <c r="M18" s="22"/>
+    </row>
+    <row r="19" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="14"/>
+      <c r="D19" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+    </row>
+    <row r="20" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="21">
+        <f>ROUND(1-((F20+G20)/2),3)</f>
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="F20" s="22">
+        <v>0.87672079999999997</v>
+      </c>
+      <c r="G20" s="22">
+        <v>0.72955669999999995</v>
+      </c>
+      <c r="H20" s="22">
+        <v>0.90315000000000001</v>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="21">
+        <f>ROUND(1-((K20+L20)/2),3)</f>
+        <v>0.121</v>
+      </c>
+      <c r="K20" s="22">
+        <v>0.84509999999999996</v>
+      </c>
+      <c r="L20" s="22">
+        <v>0.91369999999999996</v>
+      </c>
+      <c r="M20" s="22"/>
+    </row>
+    <row r="21" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="14"/>
+      <c r="D21" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+    </row>
+    <row r="22" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="14"/>
+      <c r="D22" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+    </row>
+    <row r="23" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="21">
+        <f t="shared" ref="E23:E24" si="3">ROUND(1-((F23+G23)/2),3)</f>
+        <v>0.186</v>
+      </c>
+      <c r="F23" s="22">
+        <v>0.90165580000000001</v>
+      </c>
+      <c r="G23" s="22">
+        <v>0.72623150000000003</v>
+      </c>
+      <c r="H23" s="22">
+        <v>0.91154869999999999</v>
+      </c>
+      <c r="I23" s="13"/>
+      <c r="J23" s="21">
+        <f t="shared" ref="J23:J24" si="4">ROUND(1-((K23+L23)/2),3)</f>
+        <v>0.106</v>
+      </c>
+      <c r="K23" s="22">
+        <v>0.85919999999999996</v>
+      </c>
+      <c r="L23" s="22">
+        <v>0.92810000000000004</v>
+      </c>
+      <c r="M23" s="22"/>
+    </row>
+    <row r="24" spans="3:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="21">
+        <f t="shared" si="3"/>
+        <v>0.189</v>
+      </c>
+      <c r="F24" s="22">
+        <v>0.89626620000000001</v>
+      </c>
+      <c r="G24" s="22">
+        <v>0.72623150000000003</v>
+      </c>
+      <c r="H24" s="22">
+        <v>0.90889089999999995</v>
+      </c>
+      <c r="I24" s="13"/>
+      <c r="J24" s="21">
+        <f t="shared" si="4"/>
+        <v>0.124</v>
+      </c>
+      <c r="K24" s="22">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="L24" s="22">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="M24" s="22"/>
+    </row>
+    <row r="25" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C25" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="15">
+        <v>81.7</v>
+      </c>
+      <c r="G25" s="15">
+        <v>94.7</v>
+      </c>
+      <c r="H25" s="15">
+        <v>92.7</v>
+      </c>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+    </row>
+    <row r="26" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+    </row>
+    <row r="27" spans="3:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C27" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>